--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3147.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3147.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.234738945641543</v>
+        <v>0.9573984742164612</v>
       </c>
       <c r="B1">
-        <v>2.652248757501902</v>
+        <v>1.290390014648438</v>
       </c>
       <c r="C1">
-        <v>3.459739004028749</v>
+        <v>2.113709926605225</v>
       </c>
       <c r="D1">
-        <v>3.999686685544546</v>
+        <v>4.451748847961426</v>
       </c>
       <c r="E1">
-        <v>1.820470577738425</v>
+        <v>2.111733913421631</v>
       </c>
     </row>
   </sheetData>
